--- a/Cars.xlsx
+++ b/Cars.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\crossu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VIKTO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E402DEE-48DB-4978-B1D2-3C730313A4F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="7">
   <si>
     <t>Номер заказа</t>
   </si>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -362,19 +361,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,7 +382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -390,7 +390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -398,7 +398,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -406,7 +406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -414,12 +414,164 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
